--- a/graphing.xlsx
+++ b/graphing.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8440" yWindow="2980" windowWidth="24660" windowHeight="17160" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="8440" yWindow="2980" windowWidth="30020" windowHeight="22360" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="1 File" sheetId="1" r:id="rId1"/>
@@ -153,11 +153,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -181,6 +181,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:view3D>
@@ -240,48 +260,12 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="110000"/>
-                    <a:satMod val="105000"/>
-                    <a:tint val="67000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="105000"/>
-                    <a:satMod val="103000"/>
-                    <a:tint val="73000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="105000"/>
-                    <a:satMod val="109000"/>
-                    <a:tint val="81000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:shade val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln/>
             <a:effectLst/>
-            <a:sp3d contourW="9525">
-              <a:contourClr>
-                <a:schemeClr val="accent1">
-                  <a:shade val="95000"/>
-                </a:schemeClr>
-              </a:contourClr>
-            </a:sp3d>
+            <a:sp3d/>
           </c:spPr>
           <c:cat>
             <c:numRef>
@@ -347,48 +331,12 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="110000"/>
-                    <a:satMod val="105000"/>
-                    <a:tint val="67000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="105000"/>
-                    <a:satMod val="103000"/>
-                    <a:tint val="73000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="105000"/>
-                    <a:satMod val="109000"/>
-                    <a:tint val="81000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:shade val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln/>
             <a:effectLst/>
-            <a:sp3d contourW="9525">
-              <a:contourClr>
-                <a:schemeClr val="accent2">
-                  <a:shade val="95000"/>
-                </a:schemeClr>
-              </a:contourClr>
-            </a:sp3d>
+            <a:sp3d/>
           </c:spPr>
           <c:cat>
             <c:numRef>
@@ -454,48 +402,12 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="110000"/>
-                    <a:satMod val="105000"/>
-                    <a:tint val="67000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="105000"/>
-                    <a:satMod val="103000"/>
-                    <a:tint val="73000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="105000"/>
-                    <a:satMod val="109000"/>
-                    <a:tint val="81000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:shade val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln/>
             <a:effectLst/>
-            <a:sp3d contourW="9525">
-              <a:contourClr>
-                <a:schemeClr val="accent3">
-                  <a:shade val="95000"/>
-                </a:schemeClr>
-              </a:contourClr>
-            </a:sp3d>
+            <a:sp3d/>
           </c:spPr>
           <c:cat>
             <c:numRef>
@@ -561,48 +473,12 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="110000"/>
-                    <a:satMod val="105000"/>
-                    <a:tint val="67000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="105000"/>
-                    <a:satMod val="103000"/>
-                    <a:tint val="73000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="105000"/>
-                    <a:satMod val="109000"/>
-                    <a:tint val="81000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:shade val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln/>
             <a:effectLst/>
-            <a:sp3d contourW="9525">
-              <a:contourClr>
-                <a:schemeClr val="accent4">
-                  <a:shade val="95000"/>
-                </a:schemeClr>
-              </a:contourClr>
-            </a:sp3d>
+            <a:sp3d/>
           </c:spPr>
           <c:cat>
             <c:numRef>
@@ -668,48 +544,12 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="110000"/>
-                    <a:satMod val="105000"/>
-                    <a:tint val="67000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="105000"/>
-                    <a:satMod val="103000"/>
-                    <a:tint val="73000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="105000"/>
-                    <a:satMod val="109000"/>
-                    <a:tint val="81000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:shade val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln/>
             <a:effectLst/>
-            <a:sp3d contourW="9525">
-              <a:contourClr>
-                <a:schemeClr val="accent5">
-                  <a:shade val="95000"/>
-                </a:schemeClr>
-              </a:contourClr>
-            </a:sp3d>
+            <a:sp3d/>
           </c:spPr>
           <c:cat>
             <c:numRef>
@@ -764,782 +604,203 @@
           <c:bandFmt>
             <c:idx val="0"/>
             <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="110000"/>
-                      <a:satMod val="105000"/>
-                      <a:tint val="67000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="105000"/>
-                      <a:satMod val="103000"/>
-                      <a:tint val="73000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="105000"/>
-                      <a:satMod val="109000"/>
-                      <a:tint val="81000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:shade val="95000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="9525">
-                <a:contourClr>
-                  <a:schemeClr val="accent1">
-                    <a:shade val="95000"/>
-                  </a:schemeClr>
-                </a:contourClr>
-              </a:sp3d>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
             </c:spPr>
           </c:bandFmt>
           <c:bandFmt>
             <c:idx val="1"/>
             <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="110000"/>
-                      <a:satMod val="105000"/>
-                      <a:tint val="67000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="105000"/>
-                      <a:satMod val="103000"/>
-                      <a:tint val="73000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="105000"/>
-                      <a:satMod val="109000"/>
-                      <a:tint val="81000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:shade val="95000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="9525">
-                <a:contourClr>
-                  <a:schemeClr val="accent2">
-                    <a:shade val="95000"/>
-                  </a:schemeClr>
-                </a:contourClr>
-              </a:sp3d>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
             </c:spPr>
           </c:bandFmt>
           <c:bandFmt>
             <c:idx val="2"/>
             <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent3">
-                      <a:lumMod val="110000"/>
-                      <a:satMod val="105000"/>
-                      <a:tint val="67000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent3">
-                      <a:lumMod val="105000"/>
-                      <a:satMod val="103000"/>
-                      <a:tint val="73000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent3">
-                      <a:lumMod val="105000"/>
-                      <a:satMod val="109000"/>
-                      <a:tint val="81000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="accent3">
-                    <a:shade val="95000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="9525">
-                <a:contourClr>
-                  <a:schemeClr val="accent3">
-                    <a:shade val="95000"/>
-                  </a:schemeClr>
-                </a:contourClr>
-              </a:sp3d>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
             </c:spPr>
           </c:bandFmt>
           <c:bandFmt>
             <c:idx val="3"/>
             <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent4">
-                      <a:lumMod val="110000"/>
-                      <a:satMod val="105000"/>
-                      <a:tint val="67000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent4">
-                      <a:lumMod val="105000"/>
-                      <a:satMod val="103000"/>
-                      <a:tint val="73000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent4">
-                      <a:lumMod val="105000"/>
-                      <a:satMod val="109000"/>
-                      <a:tint val="81000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:shade val="95000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="9525">
-                <a:contourClr>
-                  <a:schemeClr val="accent4">
-                    <a:shade val="95000"/>
-                  </a:schemeClr>
-                </a:contourClr>
-              </a:sp3d>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
             </c:spPr>
           </c:bandFmt>
           <c:bandFmt>
             <c:idx val="4"/>
             <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent5">
-                      <a:lumMod val="110000"/>
-                      <a:satMod val="105000"/>
-                      <a:tint val="67000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent5">
-                      <a:lumMod val="105000"/>
-                      <a:satMod val="103000"/>
-                      <a:tint val="73000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent5">
-                      <a:lumMod val="105000"/>
-                      <a:satMod val="109000"/>
-                      <a:tint val="81000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="accent5">
-                    <a:shade val="95000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="9525">
-                <a:contourClr>
-                  <a:schemeClr val="accent5">
-                    <a:shade val="95000"/>
-                  </a:schemeClr>
-                </a:contourClr>
-              </a:sp3d>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
             </c:spPr>
           </c:bandFmt>
           <c:bandFmt>
             <c:idx val="5"/>
             <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="110000"/>
-                      <a:satMod val="105000"/>
-                      <a:tint val="67000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="105000"/>
-                      <a:satMod val="103000"/>
-                      <a:tint val="73000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="105000"/>
-                      <a:satMod val="109000"/>
-                      <a:tint val="81000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:shade val="95000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="9525">
-                <a:contourClr>
-                  <a:schemeClr val="accent6">
-                    <a:shade val="95000"/>
-                  </a:schemeClr>
-                </a:contourClr>
-              </a:sp3d>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
             </c:spPr>
           </c:bandFmt>
           <c:bandFmt>
             <c:idx val="6"/>
             <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="60000"/>
-                      <a:lumMod val="110000"/>
-                      <a:satMod val="105000"/>
-                      <a:tint val="67000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="60000"/>
-                      <a:lumMod val="105000"/>
-                      <a:satMod val="103000"/>
-                      <a:tint val="73000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="60000"/>
-                      <a:lumMod val="105000"/>
-                      <a:satMod val="109000"/>
-                      <a:tint val="81000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                    <a:shade val="95000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="9525">
-                <a:contourClr>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                    <a:shade val="95000"/>
-                  </a:schemeClr>
-                </a:contourClr>
-              </a:sp3d>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
             </c:spPr>
           </c:bandFmt>
           <c:bandFmt>
             <c:idx val="7"/>
             <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="60000"/>
-                      <a:lumMod val="110000"/>
-                      <a:satMod val="105000"/>
-                      <a:tint val="67000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="60000"/>
-                      <a:lumMod val="105000"/>
-                      <a:satMod val="103000"/>
-                      <a:tint val="73000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="60000"/>
-                      <a:lumMod val="105000"/>
-                      <a:satMod val="109000"/>
-                      <a:tint val="81000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                    <a:shade val="95000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="9525">
-                <a:contourClr>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                    <a:shade val="95000"/>
-                  </a:schemeClr>
-                </a:contourClr>
-              </a:sp3d>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
             </c:spPr>
           </c:bandFmt>
           <c:bandFmt>
             <c:idx val="8"/>
             <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent3">
-                      <a:lumMod val="60000"/>
-                      <a:lumMod val="110000"/>
-                      <a:satMod val="105000"/>
-                      <a:tint val="67000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent3">
-                      <a:lumMod val="60000"/>
-                      <a:lumMod val="105000"/>
-                      <a:satMod val="103000"/>
-                      <a:tint val="73000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent3">
-                      <a:lumMod val="60000"/>
-                      <a:lumMod val="105000"/>
-                      <a:satMod val="109000"/>
-                      <a:tint val="81000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="60000"/>
-                    <a:shade val="95000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="9525">
-                <a:contourClr>
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="60000"/>
-                    <a:shade val="95000"/>
-                  </a:schemeClr>
-                </a:contourClr>
-              </a:sp3d>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
             </c:spPr>
           </c:bandFmt>
           <c:bandFmt>
             <c:idx val="9"/>
             <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent4">
-                      <a:lumMod val="60000"/>
-                      <a:lumMod val="110000"/>
-                      <a:satMod val="105000"/>
-                      <a:tint val="67000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent4">
-                      <a:lumMod val="60000"/>
-                      <a:lumMod val="105000"/>
-                      <a:satMod val="103000"/>
-                      <a:tint val="73000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent4">
-                      <a:lumMod val="60000"/>
-                      <a:lumMod val="105000"/>
-                      <a:satMod val="109000"/>
-                      <a:tint val="81000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="60000"/>
-                    <a:shade val="95000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="9525">
-                <a:contourClr>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="60000"/>
-                    <a:shade val="95000"/>
-                  </a:schemeClr>
-                </a:contourClr>
-              </a:sp3d>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
             </c:spPr>
           </c:bandFmt>
           <c:bandFmt>
             <c:idx val="10"/>
             <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent5">
-                      <a:lumMod val="60000"/>
-                      <a:lumMod val="110000"/>
-                      <a:satMod val="105000"/>
-                      <a:tint val="67000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent5">
-                      <a:lumMod val="60000"/>
-                      <a:lumMod val="105000"/>
-                      <a:satMod val="103000"/>
-                      <a:tint val="73000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent5">
-                      <a:lumMod val="60000"/>
-                      <a:lumMod val="105000"/>
-                      <a:satMod val="109000"/>
-                      <a:tint val="81000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="60000"/>
-                    <a:shade val="95000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="9525">
-                <a:contourClr>
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="60000"/>
-                    <a:shade val="95000"/>
-                  </a:schemeClr>
-                </a:contourClr>
-              </a:sp3d>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
             </c:spPr>
           </c:bandFmt>
           <c:bandFmt>
             <c:idx val="11"/>
             <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="60000"/>
-                      <a:lumMod val="110000"/>
-                      <a:satMod val="105000"/>
-                      <a:tint val="67000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="60000"/>
-                      <a:lumMod val="105000"/>
-                      <a:satMod val="103000"/>
-                      <a:tint val="73000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="60000"/>
-                      <a:lumMod val="105000"/>
-                      <a:satMod val="109000"/>
-                      <a:tint val="81000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="60000"/>
-                    <a:shade val="95000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="9525">
-                <a:contourClr>
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="60000"/>
-                    <a:shade val="95000"/>
-                  </a:schemeClr>
-                </a:contourClr>
-              </a:sp3d>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
             </c:spPr>
           </c:bandFmt>
           <c:bandFmt>
             <c:idx val="12"/>
             <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="80000"/>
-                      <a:lumOff val="20000"/>
-                      <a:lumMod val="110000"/>
-                      <a:satMod val="105000"/>
-                      <a:tint val="67000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="80000"/>
-                      <a:lumOff val="20000"/>
-                      <a:lumMod val="105000"/>
-                      <a:satMod val="103000"/>
-                      <a:tint val="73000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="80000"/>
-                      <a:lumOff val="20000"/>
-                      <a:lumMod val="105000"/>
-                      <a:satMod val="109000"/>
-                      <a:tint val="81000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="80000"/>
-                    <a:lumOff val="20000"/>
-                    <a:shade val="95000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="9525">
-                <a:contourClr>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="80000"/>
-                    <a:lumOff val="20000"/>
-                    <a:shade val="95000"/>
-                  </a:schemeClr>
-                </a:contourClr>
-              </a:sp3d>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
             </c:spPr>
           </c:bandFmt>
           <c:bandFmt>
             <c:idx val="13"/>
             <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="80000"/>
-                      <a:lumOff val="20000"/>
-                      <a:lumMod val="110000"/>
-                      <a:satMod val="105000"/>
-                      <a:tint val="67000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="80000"/>
-                      <a:lumOff val="20000"/>
-                      <a:lumMod val="105000"/>
-                      <a:satMod val="103000"/>
-                      <a:tint val="73000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="80000"/>
-                      <a:lumOff val="20000"/>
-                      <a:lumMod val="105000"/>
-                      <a:satMod val="109000"/>
-                      <a:tint val="81000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="80000"/>
-                    <a:lumOff val="20000"/>
-                    <a:shade val="95000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="9525">
-                <a:contourClr>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="80000"/>
-                    <a:lumOff val="20000"/>
-                    <a:shade val="95000"/>
-                  </a:schemeClr>
-                </a:contourClr>
-              </a:sp3d>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
             </c:spPr>
           </c:bandFmt>
           <c:bandFmt>
             <c:idx val="14"/>
             <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent3">
-                      <a:lumMod val="80000"/>
-                      <a:lumOff val="20000"/>
-                      <a:lumMod val="110000"/>
-                      <a:satMod val="105000"/>
-                      <a:tint val="67000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent3">
-                      <a:lumMod val="80000"/>
-                      <a:lumOff val="20000"/>
-                      <a:lumMod val="105000"/>
-                      <a:satMod val="103000"/>
-                      <a:tint val="73000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent3">
-                      <a:lumMod val="80000"/>
-                      <a:lumOff val="20000"/>
-                      <a:lumMod val="105000"/>
-                      <a:satMod val="109000"/>
-                      <a:tint val="81000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="80000"/>
-                    <a:lumOff val="20000"/>
-                    <a:shade val="95000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="9525">
-                <a:contourClr>
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="80000"/>
-                    <a:lumOff val="20000"/>
-                    <a:shade val="95000"/>
-                  </a:schemeClr>
-                </a:contourClr>
-              </a:sp3d>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
             </c:spPr>
           </c:bandFmt>
         </c:bandFmts>
-        <c:axId val="-1918933984"/>
-        <c:axId val="-1918930640"/>
-        <c:axId val="-1918928320"/>
+        <c:axId val="1723668256"/>
+        <c:axId val="1723672224"/>
+        <c:axId val="1723674704"/>
       </c:surface3DChart>
       <c:catAx>
-        <c:axId val="-1918933984"/>
+        <c:axId val="1723668256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1563,8 +824,8 @@
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1575,7 +836,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1918930640"/>
+        <c:crossAx val="1723672224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1583,7 +844,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1918930640"/>
+        <c:axId val="1723672224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1622,8 +883,8 @@
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1634,18 +895,18 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1918933984"/>
+        <c:crossAx val="1723668256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="-1918928320"/>
+        <c:axId val="1723674704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1669,8 +930,8 @@
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1681,7 +942,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1918930640"/>
+        <c:crossAx val="1723672224"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
       <c:spPr>
@@ -1704,8 +965,8 @@
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1727,8 +988,8 @@
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1750,8 +1011,8 @@
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1773,8 +1034,8 @@
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1796,8 +1057,8 @@
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1822,12 +1083,12 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr rtl="0">
+          <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1897,11 +1158,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1912,6 +1173,1017 @@
             <a:r>
               <a:rPr lang="en-US"/>
               <a:t>1 File Write Operations</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.353089219825783"/>
+          <c:y val="0.0428239829396325"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:surface3DChart>
+        <c:wireframe val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1 File'!$H$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>'1 File'!$I$11:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1 File'!$I$12:$M$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>17.22981602433195</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.61301613638591</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.50299964687909</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.23159624603091</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28.51261913056764</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1 File'!$H$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>'1 File'!$I$11:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1 File'!$I$13:$M$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>30.80878272901233</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46.11873383322198</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51.97745971470741</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>57.60674160175617</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>59.1652711173899</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1 File'!$H$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>'1 File'!$I$11:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1 File'!$I$14:$M$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>70.13799475122316</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93.18799539429982</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>102.7165221957444</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>115.3875245162994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>116.8882857148949</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1 File'!$H$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>'1 File'!$I$11:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1 File'!$I$15:$M$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>133.4849499890292</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>184.8371714483176</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>206.4903681478863</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>227.2372759175275</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>230.461966728845</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1 File'!$H$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>'1 File'!$I$11:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1 File'!$I$16:$M$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>261.0815875881813</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>365.0637785672567</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>402.9362246001143</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>457.9188107891414</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>452.9336927742578</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:bandFmts>
+          <c:bandFmt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="11"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="12"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="13"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="14"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+        </c:bandFmts>
+        <c:axId val="1724529440"/>
+        <c:axId val="1724532944"/>
+        <c:axId val="1724535424"/>
+      </c:surface3DChart>
+      <c:catAx>
+        <c:axId val="1724529440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1724532944"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1724532944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1724529440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="1724535424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1724532944"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>16 File Read Operations</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1974,1744 +2246,6 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'1 File'!$H$12</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="110000"/>
-                    <a:satMod val="105000"/>
-                    <a:tint val="67000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="105000"/>
-                    <a:satMod val="103000"/>
-                    <a:tint val="73000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="105000"/>
-                    <a:satMod val="109000"/>
-                    <a:tint val="81000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:shade val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d contourW="9525">
-              <a:contourClr>
-                <a:schemeClr val="accent1">
-                  <a:shade val="95000"/>
-                </a:schemeClr>
-              </a:contourClr>
-            </a:sp3d>
-          </c:spPr>
-          <c:cat>
-            <c:numRef>
-              <c:f>'1 File'!$I$11:$M$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>512.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1024.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2048.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4096.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8192.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'1 File'!$I$12:$M$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>17.22981602433195</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>21.61301613638591</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>25.50299964687909</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>29.23159624603091</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>28.51261913056764</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'1 File'!$H$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="110000"/>
-                    <a:satMod val="105000"/>
-                    <a:tint val="67000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="105000"/>
-                    <a:satMod val="103000"/>
-                    <a:tint val="73000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="105000"/>
-                    <a:satMod val="109000"/>
-                    <a:tint val="81000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:shade val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d contourW="9525">
-              <a:contourClr>
-                <a:schemeClr val="accent2">
-                  <a:shade val="95000"/>
-                </a:schemeClr>
-              </a:contourClr>
-            </a:sp3d>
-          </c:spPr>
-          <c:cat>
-            <c:numRef>
-              <c:f>'1 File'!$I$11:$M$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>512.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1024.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2048.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4096.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8192.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'1 File'!$I$13:$M$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>30.80878272901233</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>46.11873383322198</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>51.97745971470741</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>57.60674160175617</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>59.1652711173899</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'1 File'!$H$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="110000"/>
-                    <a:satMod val="105000"/>
-                    <a:tint val="67000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="105000"/>
-                    <a:satMod val="103000"/>
-                    <a:tint val="73000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="105000"/>
-                    <a:satMod val="109000"/>
-                    <a:tint val="81000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:shade val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d contourW="9525">
-              <a:contourClr>
-                <a:schemeClr val="accent3">
-                  <a:shade val="95000"/>
-                </a:schemeClr>
-              </a:contourClr>
-            </a:sp3d>
-          </c:spPr>
-          <c:cat>
-            <c:numRef>
-              <c:f>'1 File'!$I$11:$M$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>512.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1024.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2048.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4096.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8192.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'1 File'!$I$14:$M$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>70.13799475122316</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>93.18799539429982</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>102.7165221957444</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>115.3875245162994</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>116.8882857148949</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'1 File'!$H$15</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="110000"/>
-                    <a:satMod val="105000"/>
-                    <a:tint val="67000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="105000"/>
-                    <a:satMod val="103000"/>
-                    <a:tint val="73000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="105000"/>
-                    <a:satMod val="109000"/>
-                    <a:tint val="81000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:shade val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d contourW="9525">
-              <a:contourClr>
-                <a:schemeClr val="accent4">
-                  <a:shade val="95000"/>
-                </a:schemeClr>
-              </a:contourClr>
-            </a:sp3d>
-          </c:spPr>
-          <c:cat>
-            <c:numRef>
-              <c:f>'1 File'!$I$11:$M$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>512.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1024.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2048.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4096.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8192.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'1 File'!$I$15:$M$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>133.4849499890292</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>184.8371714483176</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>206.4903681478863</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>227.2372759175275</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>230.461966728845</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'1 File'!$H$16</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>16</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="110000"/>
-                    <a:satMod val="105000"/>
-                    <a:tint val="67000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="105000"/>
-                    <a:satMod val="103000"/>
-                    <a:tint val="73000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="105000"/>
-                    <a:satMod val="109000"/>
-                    <a:tint val="81000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:shade val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d contourW="9525">
-              <a:contourClr>
-                <a:schemeClr val="accent5">
-                  <a:shade val="95000"/>
-                </a:schemeClr>
-              </a:contourClr>
-            </a:sp3d>
-          </c:spPr>
-          <c:cat>
-            <c:numRef>
-              <c:f>'1 File'!$I$11:$M$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>512.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1024.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2048.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4096.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8192.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'1 File'!$I$16:$M$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>261.0815875881813</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>365.0637785672567</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>402.9362246001143</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>457.9188107891414</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>452.9336927742578</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:bandFmts>
-          <c:bandFmt>
-            <c:idx val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="110000"/>
-                      <a:satMod val="105000"/>
-                      <a:tint val="67000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="105000"/>
-                      <a:satMod val="103000"/>
-                      <a:tint val="73000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="105000"/>
-                      <a:satMod val="109000"/>
-                      <a:tint val="81000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:shade val="95000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="9525">
-                <a:contourClr>
-                  <a:schemeClr val="accent1">
-                    <a:shade val="95000"/>
-                  </a:schemeClr>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="1"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="110000"/>
-                      <a:satMod val="105000"/>
-                      <a:tint val="67000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="105000"/>
-                      <a:satMod val="103000"/>
-                      <a:tint val="73000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="105000"/>
-                      <a:satMod val="109000"/>
-                      <a:tint val="81000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:shade val="95000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="9525">
-                <a:contourClr>
-                  <a:schemeClr val="accent2">
-                    <a:shade val="95000"/>
-                  </a:schemeClr>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="2"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent3">
-                      <a:lumMod val="110000"/>
-                      <a:satMod val="105000"/>
-                      <a:tint val="67000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent3">
-                      <a:lumMod val="105000"/>
-                      <a:satMod val="103000"/>
-                      <a:tint val="73000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent3">
-                      <a:lumMod val="105000"/>
-                      <a:satMod val="109000"/>
-                      <a:tint val="81000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="accent3">
-                    <a:shade val="95000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="9525">
-                <a:contourClr>
-                  <a:schemeClr val="accent3">
-                    <a:shade val="95000"/>
-                  </a:schemeClr>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="3"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent4">
-                      <a:lumMod val="110000"/>
-                      <a:satMod val="105000"/>
-                      <a:tint val="67000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent4">
-                      <a:lumMod val="105000"/>
-                      <a:satMod val="103000"/>
-                      <a:tint val="73000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent4">
-                      <a:lumMod val="105000"/>
-                      <a:satMod val="109000"/>
-                      <a:tint val="81000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:shade val="95000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="9525">
-                <a:contourClr>
-                  <a:schemeClr val="accent4">
-                    <a:shade val="95000"/>
-                  </a:schemeClr>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="4"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent5">
-                      <a:lumMod val="110000"/>
-                      <a:satMod val="105000"/>
-                      <a:tint val="67000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent5">
-                      <a:lumMod val="105000"/>
-                      <a:satMod val="103000"/>
-                      <a:tint val="73000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent5">
-                      <a:lumMod val="105000"/>
-                      <a:satMod val="109000"/>
-                      <a:tint val="81000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="accent5">
-                    <a:shade val="95000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="9525">
-                <a:contourClr>
-                  <a:schemeClr val="accent5">
-                    <a:shade val="95000"/>
-                  </a:schemeClr>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="5"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="110000"/>
-                      <a:satMod val="105000"/>
-                      <a:tint val="67000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="105000"/>
-                      <a:satMod val="103000"/>
-                      <a:tint val="73000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="105000"/>
-                      <a:satMod val="109000"/>
-                      <a:tint val="81000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:shade val="95000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="9525">
-                <a:contourClr>
-                  <a:schemeClr val="accent6">
-                    <a:shade val="95000"/>
-                  </a:schemeClr>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="6"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="60000"/>
-                      <a:lumMod val="110000"/>
-                      <a:satMod val="105000"/>
-                      <a:tint val="67000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="60000"/>
-                      <a:lumMod val="105000"/>
-                      <a:satMod val="103000"/>
-                      <a:tint val="73000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="60000"/>
-                      <a:lumMod val="105000"/>
-                      <a:satMod val="109000"/>
-                      <a:tint val="81000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                    <a:shade val="95000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="9525">
-                <a:contourClr>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                    <a:shade val="95000"/>
-                  </a:schemeClr>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="7"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="60000"/>
-                      <a:lumMod val="110000"/>
-                      <a:satMod val="105000"/>
-                      <a:tint val="67000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="60000"/>
-                      <a:lumMod val="105000"/>
-                      <a:satMod val="103000"/>
-                      <a:tint val="73000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="60000"/>
-                      <a:lumMod val="105000"/>
-                      <a:satMod val="109000"/>
-                      <a:tint val="81000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                    <a:shade val="95000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="9525">
-                <a:contourClr>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                    <a:shade val="95000"/>
-                  </a:schemeClr>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="8"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent3">
-                      <a:lumMod val="60000"/>
-                      <a:lumMod val="110000"/>
-                      <a:satMod val="105000"/>
-                      <a:tint val="67000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent3">
-                      <a:lumMod val="60000"/>
-                      <a:lumMod val="105000"/>
-                      <a:satMod val="103000"/>
-                      <a:tint val="73000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent3">
-                      <a:lumMod val="60000"/>
-                      <a:lumMod val="105000"/>
-                      <a:satMod val="109000"/>
-                      <a:tint val="81000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="60000"/>
-                    <a:shade val="95000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="9525">
-                <a:contourClr>
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="60000"/>
-                    <a:shade val="95000"/>
-                  </a:schemeClr>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="9"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent4">
-                      <a:lumMod val="60000"/>
-                      <a:lumMod val="110000"/>
-                      <a:satMod val="105000"/>
-                      <a:tint val="67000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent4">
-                      <a:lumMod val="60000"/>
-                      <a:lumMod val="105000"/>
-                      <a:satMod val="103000"/>
-                      <a:tint val="73000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent4">
-                      <a:lumMod val="60000"/>
-                      <a:lumMod val="105000"/>
-                      <a:satMod val="109000"/>
-                      <a:tint val="81000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="60000"/>
-                    <a:shade val="95000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="9525">
-                <a:contourClr>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="60000"/>
-                    <a:shade val="95000"/>
-                  </a:schemeClr>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="10"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent5">
-                      <a:lumMod val="60000"/>
-                      <a:lumMod val="110000"/>
-                      <a:satMod val="105000"/>
-                      <a:tint val="67000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent5">
-                      <a:lumMod val="60000"/>
-                      <a:lumMod val="105000"/>
-                      <a:satMod val="103000"/>
-                      <a:tint val="73000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent5">
-                      <a:lumMod val="60000"/>
-                      <a:lumMod val="105000"/>
-                      <a:satMod val="109000"/>
-                      <a:tint val="81000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="60000"/>
-                    <a:shade val="95000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="9525">
-                <a:contourClr>
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="60000"/>
-                    <a:shade val="95000"/>
-                  </a:schemeClr>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="11"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="60000"/>
-                      <a:lumMod val="110000"/>
-                      <a:satMod val="105000"/>
-                      <a:tint val="67000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="60000"/>
-                      <a:lumMod val="105000"/>
-                      <a:satMod val="103000"/>
-                      <a:tint val="73000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="60000"/>
-                      <a:lumMod val="105000"/>
-                      <a:satMod val="109000"/>
-                      <a:tint val="81000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="60000"/>
-                    <a:shade val="95000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="9525">
-                <a:contourClr>
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="60000"/>
-                    <a:shade val="95000"/>
-                  </a:schemeClr>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="12"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="80000"/>
-                      <a:lumOff val="20000"/>
-                      <a:lumMod val="110000"/>
-                      <a:satMod val="105000"/>
-                      <a:tint val="67000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="80000"/>
-                      <a:lumOff val="20000"/>
-                      <a:lumMod val="105000"/>
-                      <a:satMod val="103000"/>
-                      <a:tint val="73000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="80000"/>
-                      <a:lumOff val="20000"/>
-                      <a:lumMod val="105000"/>
-                      <a:satMod val="109000"/>
-                      <a:tint val="81000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="80000"/>
-                    <a:lumOff val="20000"/>
-                    <a:shade val="95000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="9525">
-                <a:contourClr>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="80000"/>
-                    <a:lumOff val="20000"/>
-                    <a:shade val="95000"/>
-                  </a:schemeClr>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="13"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="80000"/>
-                      <a:lumOff val="20000"/>
-                      <a:lumMod val="110000"/>
-                      <a:satMod val="105000"/>
-                      <a:tint val="67000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="80000"/>
-                      <a:lumOff val="20000"/>
-                      <a:lumMod val="105000"/>
-                      <a:satMod val="103000"/>
-                      <a:tint val="73000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="80000"/>
-                      <a:lumOff val="20000"/>
-                      <a:lumMod val="105000"/>
-                      <a:satMod val="109000"/>
-                      <a:tint val="81000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="80000"/>
-                    <a:lumOff val="20000"/>
-                    <a:shade val="95000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="9525">
-                <a:contourClr>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="80000"/>
-                    <a:lumOff val="20000"/>
-                    <a:shade val="95000"/>
-                  </a:schemeClr>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="14"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent3">
-                      <a:lumMod val="80000"/>
-                      <a:lumOff val="20000"/>
-                      <a:lumMod val="110000"/>
-                      <a:satMod val="105000"/>
-                      <a:tint val="67000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent3">
-                      <a:lumMod val="80000"/>
-                      <a:lumOff val="20000"/>
-                      <a:lumMod val="105000"/>
-                      <a:satMod val="103000"/>
-                      <a:tint val="73000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent3">
-                      <a:lumMod val="80000"/>
-                      <a:lumOff val="20000"/>
-                      <a:lumMod val="105000"/>
-                      <a:satMod val="109000"/>
-                      <a:tint val="81000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="80000"/>
-                    <a:lumOff val="20000"/>
-                    <a:shade val="95000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="9525">
-                <a:contourClr>
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="80000"/>
-                    <a:lumOff val="20000"/>
-                    <a:shade val="95000"/>
-                  </a:schemeClr>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-          </c:bandFmt>
-        </c:bandFmts>
-        <c:axId val="-1917303024"/>
-        <c:axId val="-1917299248"/>
-        <c:axId val="-1917296768"/>
-      </c:surface3DChart>
-      <c:catAx>
-        <c:axId val="-1917303024"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-1917299248"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="-1917299248"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-1917303024"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:serAx>
-        <c:axId val="-1917296768"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-1917299248"/>
-        <c:crosses val="autoZero"/>
-      </c:serAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:legendEntry>
-        <c:idx val="0"/>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="1"/>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="2"/>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="3"/>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="4"/>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr rtl="0">
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
-      <c:rAngAx val="0"/>
-    </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:backWall>
-    <c:plotArea>
-      <c:layout/>
-      <c:surface3DChart>
-        <c:wireframe val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
               <c:f>'16 Files'!$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -4250,12 +2784,12 @@
             </c:spPr>
           </c:bandFmt>
         </c:bandFmts>
-        <c:axId val="-1871249184"/>
-        <c:axId val="-1914090000"/>
-        <c:axId val="-1951984288"/>
+        <c:axId val="1724584144"/>
+        <c:axId val="1724587920"/>
+        <c:axId val="1724590400"/>
       </c:surface3DChart>
       <c:catAx>
-        <c:axId val="-1871249184"/>
+        <c:axId val="1724584144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4298,7 +2832,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1914090000"/>
+        <c:crossAx val="1724587920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4306,7 +2840,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1914090000"/>
+        <c:axId val="1724587920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4356,12 +2890,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1871249184"/>
+        <c:crossAx val="1724584144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="-1951984288"/>
+        <c:axId val="1724590400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4403,7 +2937,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1914090000"/>
+        <c:crossAx val="1724587920"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
       <c:spPr>
@@ -4416,6 +2950,121 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -4498,6 +3147,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>16 File Write Operations</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -4507,26 +3181,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:view3D>
@@ -5114,12 +3768,12 @@
             </c:spPr>
           </c:bandFmt>
         </c:bandFmts>
-        <c:axId val="-1844854464"/>
-        <c:axId val="-1844852144"/>
-        <c:axId val="-1842869856"/>
+        <c:axId val="1723721664"/>
+        <c:axId val="1723725440"/>
+        <c:axId val="1723727920"/>
       </c:surface3DChart>
       <c:catAx>
-        <c:axId val="-1844854464"/>
+        <c:axId val="1723721664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5162,7 +3816,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1844852144"/>
+        <c:crossAx val="1723725440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5170,7 +3824,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1844852144"/>
+        <c:axId val="1723725440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5220,12 +3874,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1844854464"/>
+        <c:crossAx val="1723721664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="-1842869856"/>
+        <c:axId val="1723727920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5267,7 +3921,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1844852144"/>
+        <c:crossAx val="1723725440"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
       <c:spPr>
@@ -5280,6 +3934,167 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="6"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -5362,6 +4177,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>64 File Read Operations</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -5371,26 +4211,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:view3D>
@@ -5978,12 +4798,12 @@
             </c:spPr>
           </c:bandFmt>
         </c:bandFmts>
-        <c:axId val="-1842914416"/>
-        <c:axId val="-1842774896"/>
-        <c:axId val="-1843135776"/>
+        <c:axId val="1723774816"/>
+        <c:axId val="1723778592"/>
+        <c:axId val="1697698240"/>
       </c:surface3DChart>
       <c:catAx>
-        <c:axId val="-1842914416"/>
+        <c:axId val="1723774816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6026,7 +4846,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1842774896"/>
+        <c:crossAx val="1723778592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6034,7 +4854,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1842774896"/>
+        <c:axId val="1723778592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6084,12 +4904,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1842914416"/>
+        <c:crossAx val="1723774816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="-1843135776"/>
+        <c:axId val="1697698240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6131,7 +4951,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1842774896"/>
+        <c:crossAx val="1723778592"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
       <c:spPr>
@@ -6144,6 +4964,167 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="6"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -6226,6 +5207,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>64 File Write Operations</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -6235,26 +5241,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:view3D>
@@ -6842,12 +5828,12 @@
             </c:spPr>
           </c:bandFmt>
         </c:bandFmts>
-        <c:axId val="-1842616272"/>
-        <c:axId val="-1842713120"/>
-        <c:axId val="-1842499584"/>
+        <c:axId val="1697750944"/>
+        <c:axId val="1697754720"/>
+        <c:axId val="1697757200"/>
       </c:surface3DChart>
       <c:catAx>
-        <c:axId val="-1842616272"/>
+        <c:axId val="1697750944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6890,7 +5876,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1842713120"/>
+        <c:crossAx val="1697754720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6898,7 +5884,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1842713120"/>
+        <c:axId val="1697754720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6948,12 +5934,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1842616272"/>
+        <c:crossAx val="1697750944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="-1842499584"/>
+        <c:axId val="1697757200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6995,7 +5981,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1842713120"/>
+        <c:crossAx val="1697754720"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
       <c:spPr>
@@ -7008,6 +5994,121 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -7090,6 +6191,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>128</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> File Read Operations</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -7099,26 +6230,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:view3D>
@@ -7706,12 +6817,12 @@
             </c:spPr>
           </c:bandFmt>
         </c:bandFmts>
-        <c:axId val="-1844110208"/>
-        <c:axId val="-1840943984"/>
-        <c:axId val="-1844112368"/>
+        <c:axId val="1724630048"/>
+        <c:axId val="1724633824"/>
+        <c:axId val="1724636304"/>
       </c:surface3DChart>
       <c:catAx>
-        <c:axId val="-1844110208"/>
+        <c:axId val="1724630048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7754,7 +6865,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1840943984"/>
+        <c:crossAx val="1724633824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7762,7 +6873,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1840943984"/>
+        <c:axId val="1724633824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7812,12 +6923,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1844110208"/>
+        <c:crossAx val="1724630048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="-1844112368"/>
+        <c:axId val="1724636304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7859,7 +6970,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1840943984"/>
+        <c:crossAx val="1724633824"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
       <c:spPr>
@@ -7872,6 +6983,121 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -7954,6 +7180,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>128 File Write Operations</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -7963,26 +7214,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:view3D>
@@ -8570,12 +7801,12 @@
             </c:spPr>
           </c:bandFmt>
         </c:bandFmts>
-        <c:axId val="-1841677072"/>
-        <c:axId val="-1841674752"/>
-        <c:axId val="-1841679920"/>
+        <c:axId val="1724677040"/>
+        <c:axId val="1724680816"/>
+        <c:axId val="1724683296"/>
       </c:surface3DChart>
       <c:catAx>
-        <c:axId val="-1841677072"/>
+        <c:axId val="1724677040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8618,7 +7849,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1841674752"/>
+        <c:crossAx val="1724680816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8626,7 +7857,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1841674752"/>
+        <c:axId val="1724680816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8676,12 +7907,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1841677072"/>
+        <c:crossAx val="1724677040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="-1841679920"/>
+        <c:axId val="1724683296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8723,7 +7954,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1841674752"/>
+        <c:crossAx val="1724680816"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
       <c:spPr>
@@ -8736,6 +7967,98 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -8808,20 +8131,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
+      <xdr:colOff>558795</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>241185</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noChangeAspect="1"/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -8837,21 +8162,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>184150</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>641350</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:rowOff>177799</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>346710</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>177799</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="Chart 3"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -8879,9 +8206,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:colOff>778510</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8909,9 +8236,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:colOff>537210</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8943,10 +8270,10 @@
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>803910</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8967,16 +8294,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>549910</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9008,10 +8335,10 @@
       <xdr:rowOff>146050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>736600</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>727710</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9032,16 +8359,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>488950</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>194310</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9329,7 +8656,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:M16"/>
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9880,7 +9207,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10427,7 +9754,7 @@
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="P39" sqref="P39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10945,7 +10272,7 @@
         <v>33303.753485876885</v>
       </c>
       <c r="D16">
-        <f t="shared" ref="D13:D16" si="3">($E$1 * $D$3 *A8 / 1024 ) / (D8 / $B$1)</f>
+        <f t="shared" ref="D16" si="3">($E$1 * $D$3 *A8 / 1024 ) / (D8 / $B$1)</f>
         <v>149930.36071502435</v>
       </c>
       <c r="E16">
@@ -10992,7 +10319,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J47" sqref="J47"/>
+      <selection activeCell="Q46" sqref="Q46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/graphing.xlsx
+++ b/graphing.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8440" yWindow="2980" windowWidth="30020" windowHeight="22360" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="15780" yWindow="2960" windowWidth="30020" windowHeight="22360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="1 File" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
     <t>Clock Rate</t>
   </si>
   <si>
-    <t>Files</t>
+    <t>Blocks per Rank</t>
   </si>
 </sst>
 </file>
@@ -181,26 +181,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:view3D>
@@ -298,19 +278,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>20.25505263553934</c:v>
+                  <c:v>324.0808421686295</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26.47050128164377</c:v>
+                  <c:v>423.5280205063003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.6101485758096</c:v>
+                  <c:v>457.7623772129537</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32.87782341904623</c:v>
+                  <c:v>526.0451747047397</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31.90997565645295</c:v>
+                  <c:v>510.5596105032472</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -369,19 +349,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>39.26323809764998</c:v>
+                  <c:v>628.2118095623997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50.95894868121745</c:v>
+                  <c:v>815.3431788994792</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>58.35214331388514</c:v>
+                  <c:v>933.6342930221622</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>62.46631485670674</c:v>
+                  <c:v>999.4610377073078</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>64.7386943985654</c:v>
+                  <c:v>1035.819110377046</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -440,19 +420,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>77.01209809521886</c:v>
+                  <c:v>1232.193569523502</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>105.2209968104557</c:v>
+                  <c:v>1683.535948967291</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>119.5501298725364</c:v>
+                  <c:v>1912.802077960582</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>126.0016993593252</c:v>
+                  <c:v>2016.027189749203</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>125.8926124311883</c:v>
+                  <c:v>2014.281798899013</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -511,19 +491,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>155.5261729893321</c:v>
+                  <c:v>2488.418767829314</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>226.7790841296365</c:v>
+                  <c:v>3628.465346074184</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>224.353349233559</c:v>
+                  <c:v>3589.653587736944</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>252.9769394868636</c:v>
+                  <c:v>4047.631031789818</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>251.78876801927</c:v>
+                  <c:v>4028.620288308319</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -582,19 +562,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>352.0665661058201</c:v>
+                  <c:v>5633.065057693121</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>407.5606577621455</c:v>
+                  <c:v>6520.970524194328</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>438.105978863098</c:v>
+                  <c:v>7009.695661809566</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>487.7980509209527</c:v>
+                  <c:v>7804.768814735243</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>470.6199361751584</c:v>
+                  <c:v>7529.918978802535</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -788,12 +768,12 @@
             </c:spPr>
           </c:bandFmt>
         </c:bandFmts>
-        <c:axId val="1723668256"/>
-        <c:axId val="1723672224"/>
-        <c:axId val="1723674704"/>
+        <c:axId val="884063568"/>
+        <c:axId val="884066368"/>
+        <c:axId val="884068144"/>
       </c:surface3DChart>
       <c:catAx>
-        <c:axId val="1723668256"/>
+        <c:axId val="884063568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -836,7 +816,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1723672224"/>
+        <c:crossAx val="884066368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -844,7 +824,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1723672224"/>
+        <c:axId val="884066368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -895,12 +875,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1723668256"/>
+        <c:crossAx val="884063568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="1723674704"/>
+        <c:axId val="884068144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -942,7 +922,1061 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1723672224"/>
+        <c:crossAx val="884066368"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="6"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="7"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>128 File Write Operations</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:surface3DChart>
+        <c:wireframe val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'128 Files'!$H$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>'128 Files'!$I$11:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'128 Files'!$I$12:$M$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>112.4727568795829</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>541.0322332844763</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1890.827044056048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5282.141132414714</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14855.84570637407</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'128 Files'!$H$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>'128 Files'!$I$11:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'128 Files'!$I$13:$M$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>162.554916257549</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>205.1533569626459</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2115.11715125777</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11527.62862438522</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29609.51512178034</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'128 Files'!$H$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>'128 Files'!$I$11:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'128 Files'!$I$14:$M$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>433.2196994677101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1618.718429951881</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2454.042923679157</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20317.81104157949</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47901.13561126077</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'128 Files'!$H$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>'128 Files'!$I$11:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'128 Files'!$I$15:$M$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>738.1551898624534</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>369.5169990079642</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6212.669568642642</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49723.9809193935</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>105194.066166066</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'128 Files'!$H$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>'128 Files'!$I$11:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'128 Files'!$I$16:$M$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2176.921955020051</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8480.961277206264</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12743.33992485909</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>105179.0271068385</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>204988.3458545255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:bandFmts>
+          <c:bandFmt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="11"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="12"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="13"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="14"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+        </c:bandFmts>
+        <c:axId val="917939664"/>
+        <c:axId val="917943440"/>
+        <c:axId val="917945920"/>
+      </c:surface3DChart>
+      <c:catAx>
+        <c:axId val="917939664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="917943440"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="917943440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="917939664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="917945920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="917943440"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
       <c:spPr>
@@ -1083,7 +2117,7 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
+          <a:pPr rtl="0">
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -1193,26 +2227,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:view3D>
@@ -1310,19 +2324,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>17.22981602433195</c:v>
+                  <c:v>275.6770563893111</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.61301613638591</c:v>
+                  <c:v>345.8082581821746</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25.50299964687909</c:v>
+                  <c:v>408.0479943500655</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29.23159624603091</c:v>
+                  <c:v>467.7055399364945</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28.51261913056764</c:v>
+                  <c:v>456.2019060890823</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1381,19 +2395,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>30.80878272901233</c:v>
+                  <c:v>492.9405236641972</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46.11873383322198</c:v>
+                  <c:v>737.8997413315516</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>51.97745971470741</c:v>
+                  <c:v>831.6393554353186</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>57.60674160175617</c:v>
+                  <c:v>921.7078656280987</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>59.1652711173899</c:v>
+                  <c:v>946.6443378782383</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1452,19 +2466,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>70.13799475122316</c:v>
+                  <c:v>1122.207916019571</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>93.18799539429982</c:v>
+                  <c:v>1491.007926308797</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>102.7165221957444</c:v>
+                  <c:v>1643.464355131911</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>115.3875245162994</c:v>
+                  <c:v>1846.200392260791</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>116.8882857148949</c:v>
+                  <c:v>1870.212571438319</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1523,19 +2537,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>133.4849499890292</c:v>
+                  <c:v>2135.759199824467</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>184.8371714483176</c:v>
+                  <c:v>2957.394743173082</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>206.4903681478863</c:v>
+                  <c:v>3303.845890366181</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>227.2372759175275</c:v>
+                  <c:v>3635.79641468044</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>230.461966728845</c:v>
+                  <c:v>3687.39146766152</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1594,19 +2608,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>261.0815875881813</c:v>
+                  <c:v>4177.3054014109</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>365.0637785672567</c:v>
+                  <c:v>5841.020457076108</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>402.9362246001143</c:v>
+                  <c:v>6446.97959360183</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>457.9188107891414</c:v>
+                  <c:v>7326.700972626262</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>452.9336927742578</c:v>
+                  <c:v>7246.939084388126</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1800,12 +2814,12 @@
             </c:spPr>
           </c:bandFmt>
         </c:bandFmts>
-        <c:axId val="1724529440"/>
-        <c:axId val="1724532944"/>
-        <c:axId val="1724535424"/>
+        <c:axId val="917739792"/>
+        <c:axId val="917743568"/>
+        <c:axId val="917746048"/>
       </c:surface3DChart>
       <c:catAx>
-        <c:axId val="1724529440"/>
+        <c:axId val="917739792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1848,7 +2862,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1724532944"/>
+        <c:crossAx val="917743568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1856,7 +2870,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1724532944"/>
+        <c:axId val="917743568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1906,12 +2920,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1724529440"/>
+        <c:crossAx val="917739792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="1724535424"/>
+        <c:axId val="917746048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1953,7 +2967,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1724532944"/>
+        <c:crossAx val="917743568"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
       <c:spPr>
@@ -2060,6 +3074,75 @@
       </c:legendEntry>
       <c:legendEntry>
         <c:idx val="4"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="6"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="7"/>
         <c:txPr>
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
@@ -2784,12 +3867,12 @@
             </c:spPr>
           </c:bandFmt>
         </c:bandFmts>
-        <c:axId val="1724584144"/>
-        <c:axId val="1724587920"/>
-        <c:axId val="1724590400"/>
+        <c:axId val="917772928"/>
+        <c:axId val="917776704"/>
+        <c:axId val="917779184"/>
       </c:surface3DChart>
       <c:catAx>
-        <c:axId val="1724584144"/>
+        <c:axId val="917772928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2832,7 +3915,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1724587920"/>
+        <c:crossAx val="917776704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2840,7 +3923,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1724587920"/>
+        <c:axId val="917776704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2890,12 +3973,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1724584144"/>
+        <c:crossAx val="917772928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="1724590400"/>
+        <c:axId val="917779184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2937,7 +4020,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1724587920"/>
+        <c:crossAx val="917776704"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
       <c:spPr>
@@ -3768,12 +4851,12 @@
             </c:spPr>
           </c:bandFmt>
         </c:bandFmts>
-        <c:axId val="1723721664"/>
-        <c:axId val="1723725440"/>
-        <c:axId val="1723727920"/>
+        <c:axId val="917825808"/>
+        <c:axId val="917829584"/>
+        <c:axId val="917832064"/>
       </c:surface3DChart>
       <c:catAx>
-        <c:axId val="1723721664"/>
+        <c:axId val="917825808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3816,7 +4899,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1723725440"/>
+        <c:crossAx val="917829584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3824,7 +4907,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1723725440"/>
+        <c:axId val="917829584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3874,12 +4957,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1723721664"/>
+        <c:crossAx val="917825808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="1723727920"/>
+        <c:axId val="917832064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3921,7 +5004,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1723725440"/>
+        <c:crossAx val="917829584"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
       <c:spPr>
@@ -4308,19 +5391,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1303.682235195784</c:v>
+                  <c:v>325.9205587989461</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5215.037540376435</c:v>
+                  <c:v>1303.759385094109</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6837.669616691526</c:v>
+                  <c:v>1709.417404172882</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32497.80286766135</c:v>
+                  <c:v>8124.450716915337</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>46444.16404586724</c:v>
+                  <c:v>11611.04101146681</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4379,19 +5462,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1382.209876340404</c:v>
+                  <c:v>345.5524690851011</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6749.701841478836</c:v>
+                  <c:v>1687.42546036971</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24824.35074868206</c:v>
+                  <c:v>6206.087687170514</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>63850.60952702225</c:v>
+                  <c:v>15962.65238175556</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>91573.26945859317</c:v>
+                  <c:v>22893.31736464829</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4450,19 +5533,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1453.5165754048</c:v>
+                  <c:v>363.3791438511998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10578.8659362738</c:v>
+                  <c:v>2644.71648406845</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5467.83228943591</c:v>
+                  <c:v>1366.958072358978</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16925.555839324</c:v>
+                  <c:v>4231.388959830999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>185064.0627875918</c:v>
+                  <c:v>46266.01569689795</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4521,19 +5604,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>4025.94794217347</c:v>
+                  <c:v>1006.486985543367</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8107.269627955101</c:v>
+                  <c:v>2026.817406988775</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24725.59777875274</c:v>
+                  <c:v>6181.399444688186</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42677.61336335475</c:v>
+                  <c:v>10669.40334083869</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>358680.4853373425</c:v>
+                  <c:v>89670.12133433563</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4592,19 +5675,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>27501.38749065551</c:v>
+                  <c:v>6875.346872663876</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33303.75348587688</c:v>
+                  <c:v>8325.938371469221</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>149930.3607150243</c:v>
+                  <c:v>37482.59017875609</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>243468.9752035081</c:v>
+                  <c:v>60867.24380087703</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>692175.3534835475</c:v>
+                  <c:v>173043.8383708869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4798,12 +5881,12 @@
             </c:spPr>
           </c:bandFmt>
         </c:bandFmts>
-        <c:axId val="1723774816"/>
-        <c:axId val="1723778592"/>
-        <c:axId val="1697698240"/>
+        <c:axId val="917880800"/>
+        <c:axId val="917884576"/>
+        <c:axId val="917887056"/>
       </c:surface3DChart>
       <c:catAx>
-        <c:axId val="1723774816"/>
+        <c:axId val="917880800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4846,7 +5929,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1723778592"/>
+        <c:crossAx val="917884576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4854,7 +5937,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1723778592"/>
+        <c:axId val="917884576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4904,12 +5987,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1723774816"/>
+        <c:crossAx val="917880800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="1697698240"/>
+        <c:axId val="917887056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4951,7 +6034,969 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1723778592"/>
+        <c:crossAx val="917884576"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>64 File Write Operations</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:surface3DChart>
+        <c:wireframe val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'64 Files'!$H$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>'64 Files'!$I$11:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'64 Files'!$I$12:$M$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>143.2738073944239</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>843.7127301848545</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2671.613883333753</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6973.56385955978</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6579.404741206438</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'64 Files'!$H$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>'64 Files'!$I$11:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'64 Files'!$I$13:$M$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>50.64678436404301</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>573.7827906918938</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5040.22532957364</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12426.6068700933</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11479.24988258712</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'64 Files'!$H$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>'64 Files'!$I$11:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'64 Files'!$I$14:$M$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1973.8172372457</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4094.864575950381</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13200.12890750886</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25527.35552800617</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24362.49778887731</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'64 Files'!$H$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>'64 Files'!$I$11:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'64 Files'!$I$15:$M$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2480.252563343447</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512.0961153198843</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23752.23083085953</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45033.17898621695</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51415.77110366507</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'64 Files'!$H$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>'64 Files'!$I$11:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'64 Files'!$I$16:$M$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5098.415602625504</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9615.784159451111</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48376.05104382019</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>104014.3283800403</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>104122.0816154683</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:bandFmts>
+          <c:bandFmt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="11"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="12"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="13"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="14"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+        </c:bandFmts>
+        <c:axId val="917483312"/>
+        <c:axId val="917487088"/>
+        <c:axId val="918554528"/>
+      </c:surface3DChart>
+      <c:catAx>
+        <c:axId val="917483312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="917487088"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="917487088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="917483312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="918554528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="917487088"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
       <c:spPr>
@@ -5102,29 +7147,6 @@
           </a:p>
         </c:txPr>
       </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="6"/>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -5192,7 +7214,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5227,7 +7249,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>64 File Write Operations</a:t>
+              <a:t>64 File Read Operations</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5290,7 +7312,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'64 Files'!$H$12</c:f>
+              <c:f>'64 Files'!$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5309,7 +7331,7 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'64 Files'!$I$11:$M$11</c:f>
+              <c:f>'64 Files'!$B$11:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -5333,24 +7355,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'64 Files'!$I$12:$M$12</c:f>
+              <c:f>'64 Files'!$B$12:$F$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>573.0952295776955</c:v>
+                  <c:v>325.9205587989461</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3374.850920739418</c:v>
+                  <c:v>1303.759385094109</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10686.45553333501</c:v>
+                  <c:v>1709.417404172882</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27894.25543823912</c:v>
+                  <c:v>8124.450716915337</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26317.61896482575</c:v>
+                  <c:v>11611.04101146681</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5361,7 +7383,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'64 Files'!$H$13</c:f>
+              <c:f>'64 Files'!$A$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5380,7 +7402,7 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'64 Files'!$I$11:$M$11</c:f>
+              <c:f>'64 Files'!$B$11:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -5404,24 +7426,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'64 Files'!$I$13:$M$13</c:f>
+              <c:f>'64 Files'!$B$13:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>202.5871374561721</c:v>
+                  <c:v>345.5524690851011</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2295.131162767575</c:v>
+                  <c:v>1687.42546036971</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20160.90131829456</c:v>
+                  <c:v>6206.087687170514</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>49706.42748037318</c:v>
+                  <c:v>15962.65238175556</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45916.99953034846</c:v>
+                  <c:v>22893.31736464829</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5432,7 +7454,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'64 Files'!$H$14</c:f>
+              <c:f>'64 Files'!$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5451,7 +7473,7 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'64 Files'!$I$11:$M$11</c:f>
+              <c:f>'64 Files'!$B$11:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -5475,24 +7497,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'64 Files'!$I$14:$M$14</c:f>
+              <c:f>'64 Files'!$B$14:$F$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>7895.268948982801</c:v>
+                  <c:v>363.3791438511998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16379.45830380152</c:v>
+                  <c:v>2644.71648406845</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>52800.51563003544</c:v>
+                  <c:v>1366.958072358978</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>102109.4221120247</c:v>
+                  <c:v>4231.388959830999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>97449.99115550923</c:v>
+                  <c:v>46266.01569689795</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5503,7 +7525,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'64 Files'!$H$15</c:f>
+              <c:f>'64 Files'!$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5522,7 +7544,7 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'64 Files'!$I$11:$M$11</c:f>
+              <c:f>'64 Files'!$B$11:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -5546,24 +7568,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'64 Files'!$I$15:$M$15</c:f>
+              <c:f>'64 Files'!$B$15:$F$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>9921.010253373786</c:v>
+                  <c:v>1006.486985543367</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2048.384461279537</c:v>
+                  <c:v>2026.817406988775</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>95008.9233234381</c:v>
+                  <c:v>6181.399444688186</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>180132.7159448677</c:v>
+                  <c:v>10669.40334083869</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>205663.0844146603</c:v>
+                  <c:v>89670.12133433563</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5574,7 +7596,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'64 Files'!$H$16</c:f>
+              <c:f>'64 Files'!$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5593,7 +7615,7 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'64 Files'!$I$11:$M$11</c:f>
+              <c:f>'64 Files'!$B$11:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -5617,24 +7639,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'64 Files'!$I$16:$M$16</c:f>
+              <c:f>'64 Files'!$B$16:$F$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>20393.66241050202</c:v>
+                  <c:v>6875.346872663876</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>38463.13663780445</c:v>
+                  <c:v>8325.938371469221</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>193504.2041752808</c:v>
+                  <c:v>37482.59017875609</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>416057.3135201613</c:v>
+                  <c:v>60867.24380087703</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>416488.3264618733</c:v>
+                  <c:v>173043.8383708869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5828,12 +7850,12 @@
             </c:spPr>
           </c:bandFmt>
         </c:bandFmts>
-        <c:axId val="1697750944"/>
-        <c:axId val="1697754720"/>
-        <c:axId val="1697757200"/>
+        <c:axId val="918601968"/>
+        <c:axId val="918605744"/>
+        <c:axId val="918608224"/>
       </c:surface3DChart>
       <c:catAx>
-        <c:axId val="1697750944"/>
+        <c:axId val="918601968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5876,7 +7898,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1697754720"/>
+        <c:crossAx val="918605744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5884,7 +7906,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1697754720"/>
+        <c:axId val="918605744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5934,12 +7956,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1697750944"/>
+        <c:crossAx val="918601968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="1697757200"/>
+        <c:axId val="918608224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5981,7 +8003,973 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1697754720"/>
+        <c:crossAx val="918605744"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>128</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> File Read Operations</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:surface3DChart>
+        <c:wireframe val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'128 Files'!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>'128 Files'!$B$11:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'128 Files'!$B$12:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>110.9891165372977</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>299.6148322590561</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400.901175730395</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>674.3378923843123</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15704.39061174966</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'128 Files'!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>'128 Files'!$B$11:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'128 Files'!$B$13:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>147.2441347729016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>782.4317063577818</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1106.590444198156</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1505.868213281556</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31282.73097019388</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'128 Files'!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>'128 Files'!$B$11:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'128 Files'!$B$14:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>531.0606812753439</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>903.9998426475274</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1710.396056989227</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5576.820663797962</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>61291.75669267526</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'128 Files'!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>'128 Files'!$B$11:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'128 Files'!$B$15:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>516.7250657662584</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1357.59014597435</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2765.260256830297</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3826.305979721746</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>127219.913332987</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'128 Files'!$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>'128 Files'!$B$11:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'128 Files'!$B$16:$F$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3479.546256974108</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6393.817178788112</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8510.476233139385</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>96497.45000894356</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>253393.0017350399</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:bandFmts>
+          <c:bandFmt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="11"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="12"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="13"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="14"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+        </c:bandFmts>
+        <c:axId val="918646160"/>
+        <c:axId val="918649936"/>
+        <c:axId val="918652416"/>
+      </c:surface3DChart>
+      <c:catAx>
+        <c:axId val="918646160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="918649936"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="918649936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="918646160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="918652416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="918649936"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
       <c:spPr>
@@ -6109,6 +9097,29 @@
           </a:p>
         </c:txPr>
       </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -6176,7 +9187,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6211,13 +9222,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>128</a:t>
+              <a:t>128 File Write Operations</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> File Read Operations</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -6279,7 +9285,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'128 Files'!$A$12</c:f>
+              <c:f>'128 Files'!$H$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6298,7 +9304,7 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'128 Files'!$B$11:$F$11</c:f>
+              <c:f>'128 Files'!$I$11:$M$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -6322,24 +9328,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'128 Files'!$B$12:$F$12</c:f>
+              <c:f>'128 Files'!$I$12:$M$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>887.9129322983817</c:v>
+                  <c:v>112.4727568795829</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2396.91865807245</c:v>
+                  <c:v>541.0322332844763</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3207.20940584316</c:v>
+                  <c:v>1890.827044056048</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5394.703139074498</c:v>
+                  <c:v>5282.141132414714</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>125635.1248939973</c:v>
+                  <c:v>14855.84570637407</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6350,7 +9356,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'128 Files'!$A$13</c:f>
+              <c:f>'128 Files'!$H$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6369,7 +9375,7 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'128 Files'!$B$11:$F$11</c:f>
+              <c:f>'128 Files'!$I$11:$M$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -6393,24 +9399,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'128 Files'!$B$13:$F$13</c:f>
+              <c:f>'128 Files'!$I$13:$M$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1177.953078183213</c:v>
+                  <c:v>162.554916257549</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6259.453650862255</c:v>
+                  <c:v>205.1533569626459</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8852.723553585248</c:v>
+                  <c:v>2115.11715125777</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12046.94570625245</c:v>
+                  <c:v>11527.62862438522</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>250261.8477615511</c:v>
+                  <c:v>29609.51512178034</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6421,7 +9427,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'128 Files'!$A$14</c:f>
+              <c:f>'128 Files'!$H$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6440,7 +9446,7 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'128 Files'!$B$11:$F$11</c:f>
+              <c:f>'128 Files'!$I$11:$M$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -6464,24 +9470,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'128 Files'!$B$14:$F$14</c:f>
+              <c:f>'128 Files'!$I$14:$M$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>4248.485450202751</c:v>
+                  <c:v>433.2196994677101</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7231.998741180219</c:v>
+                  <c:v>1618.718429951881</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13683.16845591382</c:v>
+                  <c:v>2454.042923679157</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44614.5653103837</c:v>
+                  <c:v>20317.81104157949</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>490334.053541402</c:v>
+                  <c:v>47901.13561126077</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6492,7 +9498,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'128 Files'!$A$15</c:f>
+              <c:f>'128 Files'!$H$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6511,7 +9517,7 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'128 Files'!$B$11:$F$11</c:f>
+              <c:f>'128 Files'!$I$11:$M$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -6535,24 +9541,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'128 Files'!$B$15:$F$15</c:f>
+              <c:f>'128 Files'!$I$15:$M$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>4133.800526130067</c:v>
+                  <c:v>738.1551898624534</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10860.7211677948</c:v>
+                  <c:v>369.5169990079642</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22122.08205464238</c:v>
+                  <c:v>6212.669568642642</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30610.44783777397</c:v>
+                  <c:v>49723.9809193935</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0177593066639E6</c:v>
+                  <c:v>105194.066166066</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6563,7 +9569,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'128 Files'!$A$16</c:f>
+              <c:f>'128 Files'!$H$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6582,7 +9588,7 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'128 Files'!$B$11:$F$11</c:f>
+              <c:f>'128 Files'!$I$11:$M$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -6606,24 +9612,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'128 Files'!$B$16:$F$16</c:f>
+              <c:f>'128 Files'!$I$16:$M$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>27836.37005579286</c:v>
+                  <c:v>2176.921955020051</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>51150.5374303049</c:v>
+                  <c:v>8480.961277206264</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>68083.80986511507</c:v>
+                  <c:v>12743.33992485909</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>771979.6000715485</c:v>
+                  <c:v>105179.0271068385</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.02714401388032E6</c:v>
+                  <c:v>204988.3458545255</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6817,12 +9823,12 @@
             </c:spPr>
           </c:bandFmt>
         </c:bandFmts>
-        <c:axId val="1724630048"/>
-        <c:axId val="1724633824"/>
-        <c:axId val="1724636304"/>
+        <c:axId val="883056416"/>
+        <c:axId val="883042768"/>
+        <c:axId val="883070096"/>
       </c:surface3DChart>
       <c:catAx>
-        <c:axId val="1724630048"/>
+        <c:axId val="883056416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6865,7 +9871,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1724633824"/>
+        <c:crossAx val="883042768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6873,7 +9879,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1724633824"/>
+        <c:axId val="883042768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6893,6 +9899,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6923,12 +9930,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1724630048"/>
+        <c:crossAx val="883056416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="1724636304"/>
+        <c:axId val="883070096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6970,7 +9977,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1724633824"/>
+        <c:crossAx val="883042768"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
       <c:spPr>
@@ -7077,967 +10084,6 @@
       </c:legendEntry>
       <c:legendEntry>
         <c:idx val="4"/>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr rtl="0">
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>128 File Write Operations</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
-      <c:rAngAx val="0"/>
-    </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:backWall>
-    <c:plotArea>
-      <c:layout/>
-      <c:surface3DChart>
-        <c:wireframe val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'128 Files'!$H$12</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln/>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:cat>
-            <c:numRef>
-              <c:f>'128 Files'!$I$11:$M$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>512.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1024.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2048.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4096.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8192.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'128 Files'!$I$12:$M$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>899.7820550366632</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4328.25786627581</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15126.61635244839</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>42257.12905931772</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>118846.7656509925</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'128 Files'!$H$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln/>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:cat>
-            <c:numRef>
-              <c:f>'128 Files'!$I$11:$M$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>512.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1024.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2048.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4096.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8192.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'128 Files'!$I$13:$M$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1300.439330060392</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1641.226855701167</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>16920.93721006216</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>92221.02899508178</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>236876.1209742427</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'128 Files'!$H$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln/>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:cat>
-            <c:numRef>
-              <c:f>'128 Files'!$I$11:$M$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>512.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1024.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2048.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4096.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8192.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'128 Files'!$I$14:$M$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>3465.757595741681</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12949.74743961504</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>19632.34338943326</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>162542.4883326359</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>383209.0848900861</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'128 Files'!$H$15</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln/>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:cat>
-            <c:numRef>
-              <c:f>'128 Files'!$I$11:$M$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>512.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1024.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2048.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4096.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8192.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'128 Files'!$I$15:$M$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>5905.241518899627</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2956.135992063713</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>49701.35654914114</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>397791.8473551479</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>841552.5293285282</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'128 Files'!$H$16</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>16</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln/>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:cat>
-            <c:numRef>
-              <c:f>'128 Files'!$I$11:$M$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>512.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1024.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2048.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4096.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8192.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'128 Files'!$I$16:$M$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>17415.37564016041</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>67847.69021765011</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>101946.7193988728</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>841432.216854708</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.6399067668362E6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:bandFmts>
-          <c:bandFmt>
-            <c:idx val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="1"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="2"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="3"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="4"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="9"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="10"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="11"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="12"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="13"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="14"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-        </c:bandFmts>
-        <c:axId val="1724677040"/>
-        <c:axId val="1724680816"/>
-        <c:axId val="1724683296"/>
-      </c:surface3DChart>
-      <c:catAx>
-        <c:axId val="1724677040"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1724680816"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1724680816"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1724677040"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:serAx>
-        <c:axId val="1724683296"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1724680816"/>
-        <c:crosses val="autoZero"/>
-      </c:serAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:legendEntry>
-        <c:idx val="0"/>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="1"/>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="2"/>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="3"/>
         <c:txPr>
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
@@ -8322,6 +10368,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>803910</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8382,6 +10458,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>463550</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>168910</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8655,13 +10761,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
@@ -8676,7 +10783,7 @@
         <v>4</v>
       </c>
       <c r="E1">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -8961,46 +11068,46 @@
       </c>
       <c r="B12">
         <f>($E$1 * B3 *A4 / 1024 ) / (B4 / $B$1)</f>
-        <v>20.255052635539343</v>
+        <v>324.08084216862949</v>
       </c>
       <c r="C12">
         <f>($E$1 * $C$3 *$A$4 / 1024 ) / (C4 / $B$1)</f>
-        <v>26.47050128164377</v>
+        <v>423.52802050630032</v>
       </c>
       <c r="D12">
         <f>($E$1 * $D$3 *A4 / 1024 ) / (D4 / $B$1)</f>
-        <v>28.610148575809603</v>
+        <v>457.76237721295365</v>
       </c>
       <c r="E12">
         <f>($E$1 * $E$3 *A4 / 1024 ) / (E4 / $B$1)</f>
-        <v>32.87782341904623</v>
+        <v>526.04517470473968</v>
       </c>
       <c r="F12">
         <f>($E$1 * $F$3 *A4 / 1024 ) / (F4 / $B$1)</f>
-        <v>31.90997565645295</v>
+        <v>510.5596105032472</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12">
         <f>($E$1 * $I$3 *A4 / 1024 ) / (I4 / $B$1)</f>
-        <v>17.229816024331946</v>
+        <v>275.67705638931113</v>
       </c>
       <c r="J12">
         <f>($E$1 * $J$3 *A4 / 1024 ) / (J4 / $B$1)</f>
-        <v>21.613016136385912</v>
+        <v>345.8082581821746</v>
       </c>
       <c r="K12">
         <f>($E$1 * $K$3 *A4 / 1024 ) / (K4 / $B$1)</f>
-        <v>25.502999646879093</v>
+        <v>408.04799435006549</v>
       </c>
       <c r="L12">
         <f>($E$1 * $L$3 *A4 / 1024 ) / (L4 / $B$1)</f>
-        <v>29.231596246030907</v>
+        <v>467.70553993649452</v>
       </c>
       <c r="M12">
         <f>($E$1 * $M$3 *A4 / 1024 ) / (M4 / $B$1)</f>
-        <v>28.512619130567643</v>
+        <v>456.20190608908229</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -9009,46 +11116,46 @@
       </c>
       <c r="B13">
         <f>($E$1 * B3 *A5 / 1024 ) / (B5 / $B$1)</f>
-        <v>39.263238097649982</v>
+        <v>628.21180956239971</v>
       </c>
       <c r="C13">
         <f>($E$1 * $C$3 *A5 / 1024 ) / (C5 / $B$1)</f>
-        <v>50.95894868121745</v>
+        <v>815.3431788994792</v>
       </c>
       <c r="D13">
         <f t="shared" ref="D13:D16" si="0">($E$1 * $D$3 *A5 / 1024 ) / (D5 / $B$1)</f>
-        <v>58.352143313885144</v>
+        <v>933.6342930221623</v>
       </c>
       <c r="E13">
         <f t="shared" ref="E13:E16" si="1">($E$1 * $E$3 *A5 / 1024 ) / (E5 / $B$1)</f>
-        <v>62.466314856706738</v>
+        <v>999.46103770730781</v>
       </c>
       <c r="F13">
         <f t="shared" ref="F13:F16" si="2">($E$1 * $F$3 *A5 / 1024 ) / (F5 / $B$1)</f>
-        <v>64.7386943985654</v>
+        <v>1035.8191103770464</v>
       </c>
       <c r="H13">
         <v>2</v>
       </c>
       <c r="I13">
         <f>($E$1 * $I$3 *A5 / 1024 ) / (I5 / $B$1)</f>
-        <v>30.808782729012325</v>
+        <v>492.9405236641972</v>
       </c>
       <c r="J13">
         <f>($E$1 * $J$3 *A5 / 1024 ) / (J5 / $B$1)</f>
-        <v>46.118733833221981</v>
+        <v>737.8997413315517</v>
       </c>
       <c r="K13">
         <f>($E$1 * $K$3 *A5 / 1024 ) / (K5 / $B$1)</f>
-        <v>51.977459714707415</v>
+        <v>831.63935543531863</v>
       </c>
       <c r="L13">
         <f>($E$1 * $L$3 *A5 / 1024 ) / (L5 / $B$1)</f>
-        <v>57.60674160175617</v>
+        <v>921.70786562809872</v>
       </c>
       <c r="M13">
         <f>($E$1 * $M$3 *A5 / 1024 ) / (M5 / $B$1)</f>
-        <v>59.165271117389899</v>
+        <v>946.64433787823839</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -9057,46 +11164,46 @@
       </c>
       <c r="B14">
         <f>($E$1 * B3*A6 / 1024 ) / (B6 / $B$1)</f>
-        <v>77.01209809521886</v>
+        <v>1232.1935695235018</v>
       </c>
       <c r="C14">
         <f>($E$1 * $C$3  * A6 / 1024 ) / (C6 / $B$1)</f>
-        <v>105.22099681045566</v>
+        <v>1683.5359489672906</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>119.5501298725364</v>
+        <v>1912.8020779605824</v>
       </c>
       <c r="E14">
         <f t="shared" si="1"/>
-        <v>126.00169935932517</v>
+        <v>2016.0271897492028</v>
       </c>
       <c r="F14">
         <f t="shared" si="2"/>
-        <v>125.89261243118833</v>
+        <v>2014.2817988990132</v>
       </c>
       <c r="H14">
         <v>4</v>
       </c>
       <c r="I14">
         <f>($E$1 * $I$3 *A6 / 1024 ) / (I6 / $B$1)</f>
-        <v>70.137994751223161</v>
+        <v>1122.2079160195706</v>
       </c>
       <c r="J14">
         <f>($E$1 * $J$3 *A6 / 1024 ) / (J6 / $B$1)</f>
-        <v>93.187995394299818</v>
+        <v>1491.0079263087971</v>
       </c>
       <c r="K14">
         <f>($E$1 * $K$3 *A6 / 1024 ) / (K6 / $B$1)</f>
-        <v>102.71652219574445</v>
+        <v>1643.4643551319111</v>
       </c>
       <c r="L14">
         <f>($E$1 * $L$3 *A6 / 1024 ) / (L6 / $B$1)</f>
-        <v>115.38752451629944</v>
+        <v>1846.200392260791</v>
       </c>
       <c r="M14">
         <f>($E$1 * $M$3 *A6 / 1024 ) / (M6 / $B$1)</f>
-        <v>116.88828571489493</v>
+        <v>1870.2125714383189</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -9105,46 +11212,46 @@
       </c>
       <c r="B15">
         <f>($E$1 * B3  *A7 / 1024 ) / (B7 / $B$1)</f>
-        <v>155.52617298933211</v>
+        <v>2488.4187678293138</v>
       </c>
       <c r="C15">
         <f>($E$1 * $C$3 *A7 / 1024 ) / (C7 / $B$1)</f>
-        <v>226.77908412963652</v>
+        <v>3628.4653460741843</v>
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>224.35334923355902</v>
+        <v>3589.6535877369442</v>
       </c>
       <c r="E15">
         <f t="shared" si="1"/>
-        <v>252.97693948686364</v>
+        <v>4047.6310317898183</v>
       </c>
       <c r="F15">
         <f t="shared" si="2"/>
-        <v>251.78876801926992</v>
+        <v>4028.6202883083188</v>
       </c>
       <c r="H15">
         <v>8</v>
       </c>
       <c r="I15">
         <f>($E$1 * $I$3 *A7 / 1024 ) / (I7 / $B$1)</f>
-        <v>133.48494998902919</v>
+        <v>2135.759199824467</v>
       </c>
       <c r="J15">
         <f>($E$1 * $J$3 *A7 / 1024 ) / (J7 / $B$1)</f>
-        <v>184.83717144831763</v>
+        <v>2957.3947431730821</v>
       </c>
       <c r="K15">
         <f>($E$1 * $K$3 *A7 / 1024 ) / (K7 / $B$1)</f>
-        <v>206.49036814788633</v>
+        <v>3303.8458903661813</v>
       </c>
       <c r="L15">
         <f>($E$1 * $L$3 *A7 / 1024 ) / (L7 / $B$1)</f>
-        <v>227.23727591752751</v>
+        <v>3635.7964146804402</v>
       </c>
       <c r="M15">
         <f>($E$1 * $M$3 *A7 / 1024 ) / (M7 / $B$1)</f>
-        <v>230.46196672884503</v>
+        <v>3687.3914676615204</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -9153,46 +11260,46 @@
       </c>
       <c r="B16">
         <f>($E$1 * B3  *A8 / 1024 ) / (B8 / $B$1)</f>
-        <v>352.06656610582007</v>
+        <v>5633.0650576931212</v>
       </c>
       <c r="C16">
         <f>($E$1 * $C$3 *A8 / 1024 ) / (C8 / $B$1)</f>
-        <v>407.56065776214552</v>
+        <v>6520.9705241943284</v>
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>438.1059788630979</v>
+        <v>7009.6956618095664</v>
       </c>
       <c r="E16">
         <f t="shared" si="1"/>
-        <v>487.79805092095268</v>
+        <v>7804.7688147352428</v>
       </c>
       <c r="F16">
         <f t="shared" si="2"/>
-        <v>470.61993617515844</v>
+        <v>7529.9189788025351</v>
       </c>
       <c r="H16">
         <v>16</v>
       </c>
       <c r="I16">
         <f>($E$1 * $I$3 *A8 / 1024 ) / (I8 / $B$1)</f>
-        <v>261.08158758818132</v>
+        <v>4177.3054014109011</v>
       </c>
       <c r="J16">
         <f>($E$1 * $J$3 *A8 / 1024 ) / (J8 / $B$1)</f>
-        <v>365.06377856725675</v>
+        <v>5841.020457076108</v>
       </c>
       <c r="K16">
         <f>($E$1 * $K$3 *A8 / 1024 ) / (K8 / $B$1)</f>
-        <v>402.93622460011431</v>
+        <v>6446.979593601829</v>
       </c>
       <c r="L16">
         <f>($E$1 * $L$3 *A8 / 1024 ) / (L8 / $B$1)</f>
-        <v>457.91881078914139</v>
+        <v>7326.7009726262622</v>
       </c>
       <c r="M16">
         <f>($E$1 * $M$3 *A8 / 1024 ) / (M8 / $B$1)</f>
-        <v>452.93369277425785</v>
+        <v>7246.9390843881256</v>
       </c>
     </row>
   </sheetData>
@@ -9207,10 +11314,14 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L43" sqref="L43"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -9572,7 +11683,7 @@
         <v>6791.0271299212682</v>
       </c>
       <c r="F13">
-        <f t="shared" ref="F13:F16" si="2">($E$1 * $F$3 *A5 / 1024 ) / (F5 / $B$1)</f>
+        <f t="shared" ref="F13:F15" si="2">($E$1 * $F$3 *A5 / 1024 ) / (F5 / $B$1)</f>
         <v>11390.095850048052</v>
       </c>
       <c r="H13">
@@ -9716,7 +11827,7 @@
         <v>50727.261552999131</v>
       </c>
       <c r="F16">
-        <f t="shared" si="2"/>
+        <f>($E$1 * $F$3 *A8 / 1024 ) / (F8 / $B$1)</f>
         <v>88856.905320185178</v>
       </c>
       <c r="H16">
@@ -9754,7 +11865,7 @@
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P39" sqref="P39"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9771,7 +11882,7 @@
         <v>4</v>
       </c>
       <c r="E1">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="N1" s="1"/>
     </row>
@@ -10069,46 +12180,46 @@
       </c>
       <c r="B12">
         <f>($E$1 * B3 *A4 / 1024 ) / (B4 / $B$1)</f>
-        <v>1303.6822351957844</v>
+        <v>325.9205587989461</v>
       </c>
       <c r="C12">
         <f>($E$1 * $C$3 *$A$4 / 1024 ) / (C4 / $B$1)</f>
-        <v>5215.0375403764347</v>
+        <v>1303.7593850941087</v>
       </c>
       <c r="D12">
         <f>($E$1 * $D$3 *A4 / 1024 ) / (D4 / $B$1)</f>
-        <v>6837.6696166915262</v>
+        <v>1709.4174041728816</v>
       </c>
       <c r="E12">
         <f>($E$1 * $E$3 *A4 / 1024 ) / (E4 / $B$1)</f>
-        <v>32497.802867661347</v>
+        <v>8124.4507169153367</v>
       </c>
       <c r="F12">
         <f>($E$1 * $F$3 *A4 / 1024 ) / (F4 / $B$1)</f>
-        <v>46444.164045867241</v>
+        <v>11611.04101146681</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12">
         <f>($E$1 * $I$3 *A4 / 1024 ) / (I4 / $B$1)</f>
-        <v>573.09522957769559</v>
+        <v>143.2738073944239</v>
       </c>
       <c r="J12">
         <f>($E$1 * $J$3 *A4 / 1024 ) / (J4 / $B$1)</f>
-        <v>3374.8509207394181</v>
+        <v>843.71273018485454</v>
       </c>
       <c r="K12">
         <f>($E$1 * $K$3 *A4 / 1024 ) / (K4 / $B$1)</f>
-        <v>10686.455533335011</v>
+        <v>2671.6138833337527</v>
       </c>
       <c r="L12">
         <f>($E$1 * $L$3 *A4 / 1024 ) / (L4 / $B$1)</f>
-        <v>27894.255438239117</v>
+        <v>6973.5638595597793</v>
       </c>
       <c r="M12">
         <f>($E$1 * $M$3 *A4 / 1024 ) / (M4 / $B$1)</f>
-        <v>26317.618964825753</v>
+        <v>6579.4047412064383</v>
       </c>
       <c r="N12" s="1"/>
     </row>
@@ -10118,46 +12229,46 @@
       </c>
       <c r="B13">
         <f>($E$1 * B3 *A5 / 1024 ) / (B5 / $B$1)</f>
-        <v>1382.2098763404044</v>
+        <v>345.55246908510111</v>
       </c>
       <c r="C13">
         <f>($E$1 * $C$3 *A5 / 1024 ) / (J4 / $B$1)</f>
-        <v>6749.7018414788363</v>
+        <v>1687.4254603697091</v>
       </c>
       <c r="D13">
         <f>($E$1 * $D$3 *A5 / 1024 ) / (D5 / $B$1)</f>
-        <v>24824.350748682056</v>
+        <v>6206.0876871705141</v>
       </c>
       <c r="E13">
         <f t="shared" ref="E13:E16" si="0">($E$1 * $E$3 *A5 / 1024 ) / (E5 / $B$1)</f>
-        <v>63850.60952702225</v>
+        <v>15962.652381755563</v>
       </c>
       <c r="F13">
         <f t="shared" ref="F13:F16" si="1">($E$1 * $F$3 *A5 / 1024 ) / (F5 / $B$1)</f>
-        <v>91573.269458593175</v>
+        <v>22893.317364648294</v>
       </c>
       <c r="H13">
         <v>2</v>
       </c>
       <c r="I13">
         <f>($E$1 * $I$3 *A5 / 1024 ) / (I5 / $B$1)</f>
-        <v>202.58713745617206</v>
+        <v>50.646784364043015</v>
       </c>
       <c r="J13">
         <f>($E$1 * $J$3 *A5 / 1024 ) / (J5 / $B$1)</f>
-        <v>2295.1311627675755</v>
+        <v>573.78279069189387</v>
       </c>
       <c r="K13">
         <f t="shared" ref="K13:K16" si="2">($E$1 * $K$3 *A5 / 1024 ) / (K5 / $B$1)</f>
-        <v>20160.901318294564</v>
+        <v>5040.2253295736409</v>
       </c>
       <c r="L13">
         <f>($E$1 * $L$3 *A5 / 1024 ) / (L5 / $B$1)</f>
-        <v>49706.427480373182</v>
+        <v>12426.606870093296</v>
       </c>
       <c r="M13">
         <f>($E$1 * $M$3 *A5 / 1024 ) / (M5 / $B$1)</f>
-        <v>45916.999530348461</v>
+        <v>11479.249882587115</v>
       </c>
       <c r="N13" s="1"/>
     </row>
@@ -10167,46 +12278,46 @@
       </c>
       <c r="B14">
         <f>($E$1 * B3*A6 / 1024 ) / (B6 / $B$1)</f>
-        <v>1453.5165754047991</v>
+        <v>363.37914385119979</v>
       </c>
       <c r="C14">
         <f>($E$1 * $C$3  * A6 / 1024 ) / (C6 / $B$1)</f>
-        <v>10578.8659362738</v>
+        <v>2644.71648406845</v>
       </c>
       <c r="D14">
         <f>($E$1 * $D$3 *A6 / 1024 ) / (D6 / $B$1)</f>
-        <v>5467.8322894359108</v>
+        <v>1366.9580723589777</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>16925.555839323995</v>
+        <v>4231.3889598309988</v>
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
-        <v>185064.06278759183</v>
+        <v>46266.015696897957</v>
       </c>
       <c r="H14">
         <v>4</v>
       </c>
       <c r="I14">
         <f>($E$1 * $I$3 *A6 / 1024 ) / (I6 / $B$1)</f>
-        <v>7895.2689489828008</v>
+        <v>1973.8172372457002</v>
       </c>
       <c r="J14">
         <f>($E$1 * $J$3 *A6 / 1024 ) / (J6 / $B$1)</f>
-        <v>16379.458303801523</v>
+        <v>4094.8645759503806</v>
       </c>
       <c r="K14">
         <f t="shared" si="2"/>
-        <v>52800.515630035443</v>
+        <v>13200.128907508861</v>
       </c>
       <c r="L14">
         <f>($E$1 * $L$3 *A6 / 1024 ) / (L6 / $B$1)</f>
-        <v>102109.42211202469</v>
+        <v>25527.355528006174</v>
       </c>
       <c r="M14">
         <f>($E$1 * $M$3 *A6 / 1024 ) / (M6 / $B$1)</f>
-        <v>97449.991155509226</v>
+        <v>24362.497788877306</v>
       </c>
       <c r="N14" s="1"/>
     </row>
@@ -10216,46 +12327,46 @@
       </c>
       <c r="B15">
         <f>($E$1 * B3  *A7 / 1024 ) / (B7 / $B$1)</f>
-        <v>4025.94794217347</v>
+        <v>1006.4869855433675</v>
       </c>
       <c r="C15">
         <f>($E$1 * $C$3 *A7 / 1024 ) / (C7 / $B$1)</f>
-        <v>8107.2696279551019</v>
+        <v>2026.8174069887755</v>
       </c>
       <c r="D15">
         <f>($E$1 * $D$3 *A7 / 1024 ) / (D7 / $B$1)</f>
-        <v>24725.597778752744</v>
+        <v>6181.3994446881861</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>42677.613363354751</v>
+        <v>10669.403340838688</v>
       </c>
       <c r="F15">
         <f t="shared" si="1"/>
-        <v>358680.48533734254</v>
+        <v>89670.121334335636</v>
       </c>
       <c r="H15">
         <v>8</v>
       </c>
       <c r="I15">
         <f>($E$1 * $I$3 *A7 / 1024 ) / (I7 / $B$1)</f>
-        <v>9921.0102533737863</v>
+        <v>2480.2525633434466</v>
       </c>
       <c r="J15">
         <f>($E$1 * $J$3 *A7 / 1024 ) / (J7 / $B$1)</f>
-        <v>2048.3844612795374</v>
+        <v>512.09611531988435</v>
       </c>
       <c r="K15">
         <f t="shared" si="2"/>
-        <v>95008.92332343811</v>
+        <v>23752.230830859527</v>
       </c>
       <c r="L15">
         <f>($E$1 * $L$3 *A7 / 1024 ) / (L7 / $B$1)</f>
-        <v>180132.71594486778</v>
+        <v>45033.178986216946</v>
       </c>
       <c r="M15">
         <f>($E$1 * $M$3 *A7 / 1024 ) / (M7 / $B$1)</f>
-        <v>205663.08441466029</v>
+        <v>51415.771103665073</v>
       </c>
       <c r="N15" s="1"/>
     </row>
@@ -10265,46 +12376,46 @@
       </c>
       <c r="B16">
         <f>($E$1 * B3  *A8 / 1024 ) / (B8 / $B$1)</f>
-        <v>27501.387490655507</v>
+        <v>6875.3468726638766</v>
       </c>
       <c r="C16">
         <f>($E$1 * $C$3 *A8 / 1024 ) / (C8 / $B$1)</f>
-        <v>33303.753485876885</v>
+        <v>8325.9383714692212</v>
       </c>
       <c r="D16">
         <f t="shared" ref="D16" si="3">($E$1 * $D$3 *A8 / 1024 ) / (D8 / $B$1)</f>
-        <v>149930.36071502435</v>
+        <v>37482.590178756087</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>243468.97520350813</v>
+        <v>60867.243800877033</v>
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
-        <v>692175.35348354757</v>
+        <v>173043.83837088689</v>
       </c>
       <c r="H16">
         <v>16</v>
       </c>
       <c r="I16">
         <f>($E$1 * $I$3 *A8 / 1024 ) / (I8 / $B$1)</f>
-        <v>20393.662410502016</v>
+        <v>5098.4156026255041</v>
       </c>
       <c r="J16">
         <f>($E$1 * $J$3 *A8 / 1024 ) / (J8 / $B$1)</f>
-        <v>38463.136637804448</v>
+        <v>9615.7841594511119</v>
       </c>
       <c r="K16">
         <f t="shared" si="2"/>
-        <v>193504.20417528076</v>
+        <v>48376.051043820189</v>
       </c>
       <c r="L16">
         <f>($E$1 * $L$3 *A8 / 1024 ) / (L8 / $B$1)</f>
-        <v>416057.31352016126</v>
+        <v>104014.32838004032</v>
       </c>
       <c r="M16">
         <f>($E$1 * $M$3 *A8 / 1024 ) / (M8 / $B$1)</f>
-        <v>416488.32646187337</v>
+        <v>104122.08161546834</v>
       </c>
       <c r="N16" s="1"/>
     </row>
@@ -10318,8 +12429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q46" sqref="Q46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10336,7 +12447,7 @@
         <v>4</v>
       </c>
       <c r="E1">
-        <v>128</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -10621,46 +12732,46 @@
       </c>
       <c r="B12">
         <f>($E$1 * B3 *A4 / 1024 ) / (B4 / $B$1)</f>
-        <v>887.91293229838175</v>
+        <v>110.98911653729772</v>
       </c>
       <c r="C12">
         <f>($E$1 * $C$3 *$A$4 / 1024 ) / (C4 / $B$1)</f>
-        <v>2396.918658072449</v>
+        <v>299.61483225905613</v>
       </c>
       <c r="D12">
         <f>($E$1 * $D$3 *A4 / 1024 ) / (D4 / $B$1)</f>
-        <v>3207.2094058431599</v>
+        <v>400.90117573039498</v>
       </c>
       <c r="E12">
         <f>($E$1 * $E$3 *A4 / 1024 ) / (E4 / $B$1)</f>
-        <v>5394.7031390744987</v>
+        <v>674.33789238431234</v>
       </c>
       <c r="F12">
         <f>($E$1 * $F$3 *A4 / 1024 ) / (F4 / $B$1)</f>
-        <v>125635.12489399729</v>
+        <v>15704.390611749661</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12">
         <f>($E$1 * $I$3 *A4 / 1024 ) / (I4 / $B$1)</f>
-        <v>899.78205503666322</v>
+        <v>112.4727568795829</v>
       </c>
       <c r="J12">
         <f>($E$1 * $J$3 *A4 / 1024 ) / (J4 / $B$1)</f>
-        <v>4328.2578662758106</v>
+        <v>541.03223328447632</v>
       </c>
       <c r="K12">
         <f>($E$1 * $K$3 *A4 / 1024 ) / (K4 / $B$1)</f>
-        <v>15126.616352448387</v>
+        <v>1890.8270440560484</v>
       </c>
       <c r="L12">
         <f>($E$1 * $L$3 *A4 / 1024 ) / (L4 / $B$1)</f>
-        <v>42257.129059317718</v>
+        <v>5282.1411324147148</v>
       </c>
       <c r="M12">
         <f>($E$1 * $M$3 *A4 / 1024 ) / (M4 / $B$1)</f>
-        <v>118846.76565099253</v>
+        <v>14855.845706374066</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -10669,46 +12780,46 @@
       </c>
       <c r="B13">
         <f>($E$1 * B3 *A5 / 1024 ) / (B5 / $B$1)</f>
-        <v>1177.9530781832132</v>
+        <v>147.24413477290165</v>
       </c>
       <c r="C13">
         <f>($E$1 * $C$3 *A5 / 1024 ) / (C5 / $B$1)</f>
-        <v>6259.453650862255</v>
+        <v>782.43170635778188</v>
       </c>
       <c r="D13">
         <f t="shared" ref="D13:D16" si="0">($E$1 * $D$3 *A5 / 1024 ) / (D5 / $B$1)</f>
-        <v>8852.7235535852487</v>
+        <v>1106.5904441981561</v>
       </c>
       <c r="E13">
         <f t="shared" ref="E13:E16" si="1">($E$1 * $E$3 *A5 / 1024 ) / (E5 / $B$1)</f>
-        <v>12046.945706252449</v>
+        <v>1505.8682132815561</v>
       </c>
       <c r="F13">
         <f t="shared" ref="F13:F16" si="2">($E$1 * $F$3 *A5 / 1024 ) / (F5 / $B$1)</f>
-        <v>250261.84776155106</v>
+        <v>31282.730970193883</v>
       </c>
       <c r="H13">
         <v>2</v>
       </c>
       <c r="I13">
         <f>($E$1 * $I$3 *A5 / 1024 ) / (I5 / $B$1)</f>
-        <v>1300.4393300603917</v>
+        <v>162.55491625754897</v>
       </c>
       <c r="J13">
         <f>($E$1 * $J$3 *A5 / 1024 ) / (J5 / $B$1)</f>
-        <v>1641.2268557011671</v>
+        <v>205.15335696264589</v>
       </c>
       <c r="K13">
         <f>($E$1 * $K$3 *A5 / 1024 ) / (K5 / $B$1)</f>
-        <v>16920.937210062159</v>
+        <v>2115.1171512577698</v>
       </c>
       <c r="L13">
         <f>($E$1 * $L$3 *A5 / 1024 ) / (L5 / $B$1)</f>
-        <v>92221.028995081782</v>
+        <v>11527.628624385223</v>
       </c>
       <c r="M13">
         <f>($E$1 * $M$3 *A5 / 1024 ) / (M5 / $B$1)</f>
-        <v>236876.12097424269</v>
+        <v>29609.515121780336</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -10717,46 +12828,46 @@
       </c>
       <c r="B14">
         <f>($E$1 * B3*A6 / 1024 ) / (B6 / $B$1)</f>
-        <v>4248.4854502027511</v>
+        <v>531.06068127534388</v>
       </c>
       <c r="C14">
         <f>($E$1 * $C$3  * A6 / 1024 ) / (C6 / $B$1)</f>
-        <v>7231.9987411802194</v>
+        <v>903.99984264752743</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>13683.168455913819</v>
+        <v>1710.3960569892274</v>
       </c>
       <c r="E14">
         <f t="shared" si="1"/>
-        <v>44614.565310383703</v>
+        <v>5576.8206637979629</v>
       </c>
       <c r="F14">
         <f t="shared" si="2"/>
-        <v>490334.05354140204</v>
+        <v>61291.756692675255</v>
       </c>
       <c r="H14">
         <v>4</v>
       </c>
       <c r="I14">
         <f>($E$1 * $I$3 *A6 / 1024 ) / (I6 / $B$1)</f>
-        <v>3465.7575957416807</v>
+        <v>433.21969946771009</v>
       </c>
       <c r="J14">
         <f>($E$1 * $J$3 *A6 / 1024 ) / (J6 / $B$1)</f>
-        <v>12949.747439615045</v>
+        <v>1618.7184299518806</v>
       </c>
       <c r="K14">
         <f>($E$1 * $K$3 *A6 / 1024 ) / (K6 / $B$1)</f>
-        <v>19632.343389433256</v>
+        <v>2454.042923679157</v>
       </c>
       <c r="L14">
         <f>($E$1 * $L$3 *A6 / 1024 ) / (L6 / $B$1)</f>
-        <v>162542.4883326359</v>
+        <v>20317.811041579487</v>
       </c>
       <c r="M14">
         <f>($E$1 * $M$3 *A6 / 1024 ) / (M6 / $B$1)</f>
-        <v>383209.08489008615</v>
+        <v>47901.135611260768</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -10765,46 +12876,46 @@
       </c>
       <c r="B15">
         <f>($E$1 * B3  *A7 / 1024 ) / (B7 / $B$1)</f>
-        <v>4133.8005261300677</v>
+        <v>516.72506576625847</v>
       </c>
       <c r="C15">
         <f>($E$1 * $C$3 *A7 / 1024 ) / (C7 / $B$1)</f>
-        <v>10860.7211677948</v>
+        <v>1357.59014597435</v>
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>22122.082054642378</v>
+        <v>2765.2602568302973</v>
       </c>
       <c r="E15">
         <f t="shared" si="1"/>
-        <v>30610.447837773965</v>
+        <v>3826.3059797217456</v>
       </c>
       <c r="F15">
         <f t="shared" si="2"/>
-        <v>1017759.3066638962</v>
+        <v>127219.91333298702</v>
       </c>
       <c r="H15">
         <v>8</v>
       </c>
       <c r="I15">
         <f>($E$1 * $I$3 *A7 / 1024 ) / (I7 / $B$1)</f>
-        <v>5905.2415188996274</v>
+        <v>738.15518986245343</v>
       </c>
       <c r="J15">
         <f>($E$1 * $J$3 *A7 / 1024 ) / (J7 / $B$1)</f>
-        <v>2956.1359920637133</v>
+        <v>369.51699900796416</v>
       </c>
       <c r="K15">
         <f>($E$1 * $K$3 *A7 / 1024 ) / (K7 / $B$1)</f>
-        <v>49701.356549141143</v>
+        <v>6212.6695686426428</v>
       </c>
       <c r="L15">
         <f>($E$1 * $L$3 *A7 / 1024 ) / (L7 / $B$1)</f>
-        <v>397791.84735514794</v>
+        <v>49723.980919393493</v>
       </c>
       <c r="M15">
         <f>($E$1 * $M$3 *A7 / 1024 ) / (M7 / $B$1)</f>
-        <v>841552.52932852821</v>
+        <v>105194.06616606603</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -10813,46 +12924,46 @@
       </c>
       <c r="B16">
         <f>($E$1 * B3  *A8 / 1024 ) / (B8 / $B$1)</f>
-        <v>27836.370055792861</v>
+        <v>3479.5462569741076</v>
       </c>
       <c r="C16">
         <f>($E$1 * $C$3 *A8 / 1024 ) / (C8 / $B$1)</f>
-        <v>51150.537430304896</v>
+        <v>6393.817178788112</v>
       </c>
       <c r="D16">
-        <f t="shared" si="0"/>
-        <v>68083.809865115079</v>
+        <f>($E$1 * $D$3 *A8 / 1024 ) / (D8 / $B$1)</f>
+        <v>8510.4762331393849</v>
       </c>
       <c r="E16">
         <f t="shared" si="1"/>
-        <v>771979.60007154848</v>
+        <v>96497.450008943561</v>
       </c>
       <c r="F16">
         <f t="shared" si="2"/>
-        <v>2027144.0138803192</v>
+        <v>253393.0017350399</v>
       </c>
       <c r="H16">
         <v>16</v>
       </c>
       <c r="I16">
         <f>($E$1 * $I$3 *A8 / 1024 ) / (I8 / $B$1)</f>
-        <v>17415.375640160411</v>
+        <v>2176.9219550200514</v>
       </c>
       <c r="J16">
         <f>($E$1 * $J$3 *A8 / 1024 ) / (J8 / $B$1)</f>
-        <v>67847.690217650117</v>
+        <v>8480.9612772062646</v>
       </c>
       <c r="K16">
         <f>($E$1 * $K$3 *A8 / 1024 ) / (K8 / $B$1)</f>
-        <v>101946.71939887275</v>
+        <v>12743.339924859094</v>
       </c>
       <c r="L16">
         <f>($E$1 * $L$3 *A8 / 1024 ) / (L8 / $B$1)</f>
-        <v>841432.21685470792</v>
+        <v>105179.02710683849</v>
       </c>
       <c r="M16">
         <f>($E$1 * $M$3 *A8 / 1024 ) / (M8 / $B$1)</f>
-        <v>1639906.7668362036</v>
+        <v>204988.34585452545</v>
       </c>
     </row>
   </sheetData>
